--- a/Src/results.xlsx
+++ b/Src/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D529B5-DAC5-429D-856A-C35B28F8F8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F2C97-9362-40DB-B21D-511CFBA3D693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{D8EC8221-4334-4B5E-8E46-2AC37E5252F0}"/>
   </bookViews>
@@ -460,10 +460,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5818</v>
+        <v>5158</v>
       </c>
       <c r="C2">
-        <v>105</v>
+        <v>765</v>
       </c>
       <c r="D2">
         <v>5923</v>
@@ -474,10 +474,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C3">
-        <v>54056</v>
+        <v>53910</v>
       </c>
       <c r="D3">
         <v>54077</v>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5839</v>
+        <v>5325</v>
       </c>
       <c r="C4">
-        <v>54161</v>
+        <v>54675</v>
       </c>
       <c r="D4">
         <v>60000</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>963</v>
+        <v>864</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>980</v>
@@ -546,10 +546,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>9011</v>
+        <v>8978</v>
       </c>
       <c r="D3">
         <v>9020</v>
@@ -560,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>972</v>
+        <v>906</v>
       </c>
       <c r="C4">
-        <v>9028</v>
+        <v>9094</v>
       </c>
       <c r="D4">
         <v>10000</v>

--- a/Src/results.xlsx
+++ b/Src/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3F2C97-9362-40DB-B21D-511CFBA3D693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004448E-DF20-4BE8-9610-95A896C1D92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{D8EC8221-4334-4B5E-8E46-2AC37E5252F0}"/>
   </bookViews>

--- a/Src/results.xlsx
+++ b/Src/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004448E-DF20-4BE8-9610-95A896C1D92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F268F-1C1A-4177-82C8-2F0215875BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{D8EC8221-4334-4B5E-8E46-2AC37E5252F0}"/>
   </bookViews>

--- a/Src/results.xlsx
+++ b/Src/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\临时文件\大作业\matlab\Least_Squares_Classification_Matlab_Project\Least_Squares_Classification_Matlab_Project\Src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04F268F-1C1A-4177-82C8-2F0215875BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C137622-67DF-4961-948D-29CA332EA67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35340" yWindow="3780" windowWidth="26940" windowHeight="15435" activeTab="2" xr2:uid="{D8EC8221-4334-4B5E-8E46-2AC37E5252F0}"/>
   </bookViews>
